--- a/projects/parasheeter/pslsx/1.xlsx
+++ b/projects/parasheeter/pslsx/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MURANAKA\Documents\GitHub\PIKUMIN\pslsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MURANAKA\Documents\GitHub\PIKUMIN\projects\parasheeter\pslsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A35E31C-9D81-4827-8DC4-3291D211F762}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621F8FC-9006-46AC-9192-BFA48109AF33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_1" sheetId="1" r:id="rId1"/>
@@ -490,11 +490,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
@@ -504,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" ht="30" customHeight="1">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -563,11 +566,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="98.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
@@ -601,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" ht="306" customHeight="1">
       <c r="B6" s="2">
         <v>4</v>
       </c>

--- a/projects/parasheeter/pslsx/1.xlsx
+++ b/projects/parasheeter/pslsx/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MURANAKA\Documents\GitHub\PIKUMIN\projects\parasheeter\pslsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plane\Documents\GitHub\PIKUMIN\projects\parasheeter\pslsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621F8FC-9006-46AC-9192-BFA48109AF33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04DB0A-BF9F-47BB-8D7B-D6F3B2C16931}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>1.xlsx</t>
   </si>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>uiiii</t>
+  </si>
+  <si>
+    <t>{{hostname}}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -69,13 +73,14 @@
   <fonts count="9">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -84,7 +89,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -93,7 +98,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,7 +106,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -109,6 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +124,7 @@
       <i/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -126,7 +132,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -136,7 +142,7 @@
       <i/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -152,19 +158,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD6DCE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,16 +185,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -512,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -558,7 +564,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -567,7 +573,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -588,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:3">
